--- a/General_Results_and_Plotting/AMF_Late_PercentAllocation_Updated620.xlsx
+++ b/General_Results_and_Plotting/AMF_Late_PercentAllocation_Updated620.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaste2\Desktop\FBA Paper Revisions\Figure Generation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaste2\Downloads\Maize-Rhizobia-AMF_FBA-main\General_Results_and_Plotting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DD32AA-1C64-4F3E-B779-3A6D291955FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B482B65-F7D0-450C-AC70-B7A823787121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35880" yWindow="-2610" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,8 +66,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -348,15 +349,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:V1048576"/>
+      <selection activeCell="A22" sqref="A13:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B1">
         <v>10</v>
       </c>
@@ -388,68 +389,79 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>100</v>
       </c>
       <c r="B2">
-        <v>4.07</v>
+        <v>3.78</v>
       </c>
       <c r="C2">
-        <v>4.62</v>
+        <v>4.41</v>
       </c>
       <c r="D2">
-        <v>4.63</v>
+        <v>4.5</v>
       </c>
       <c r="E2">
-        <v>4.63</v>
+        <v>4.51</v>
       </c>
       <c r="F2">
-        <v>4.63</v>
+        <v>4.51</v>
       </c>
       <c r="G2">
-        <v>4.63</v>
+        <v>4.51</v>
       </c>
       <c r="H2">
-        <v>4.5</v>
+        <v>4.51</v>
       </c>
       <c r="I2">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="J2">
         <v>0.09</v>
       </c>
       <c r="K2">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>90</v>
       </c>
       <c r="B3">
-        <v>4.07</v>
+        <v>3.78</v>
       </c>
       <c r="C3">
-        <v>4.62</v>
+        <v>4.41</v>
       </c>
       <c r="D3">
-        <v>4.63</v>
+        <v>4.51</v>
       </c>
       <c r="E3">
-        <v>4.63</v>
+        <v>4.51</v>
       </c>
       <c r="F3">
-        <v>4.63</v>
+        <v>4.51</v>
       </c>
       <c r="G3">
-        <v>4.63</v>
+        <v>4.51</v>
       </c>
       <c r="H3">
-        <v>4.5</v>
+        <v>4.51</v>
       </c>
       <c r="I3">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="J3">
         <v>0.09</v>
@@ -457,34 +469,44 @@
       <c r="K3">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>80</v>
       </c>
       <c r="B4">
-        <v>4.07</v>
+        <v>3.78</v>
       </c>
       <c r="C4">
-        <v>4.62</v>
+        <v>4.41</v>
       </c>
       <c r="D4">
-        <v>4.63</v>
+        <v>4.51</v>
       </c>
       <c r="E4">
-        <v>4.63</v>
+        <v>4.51</v>
       </c>
       <c r="F4">
-        <v>4.63</v>
+        <v>4.51</v>
       </c>
       <c r="G4">
-        <v>4.63</v>
+        <v>4.51</v>
       </c>
       <c r="H4">
-        <v>4.5</v>
+        <v>4.51</v>
       </c>
       <c r="I4">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="J4">
         <v>0.08</v>
@@ -492,34 +514,44 @@
       <c r="K4">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>70</v>
       </c>
       <c r="B5">
-        <v>4.08</v>
+        <v>3.78</v>
       </c>
       <c r="C5">
-        <v>4.62</v>
+        <v>4.41</v>
       </c>
       <c r="D5">
-        <v>4.63</v>
+        <v>4.51</v>
       </c>
       <c r="E5">
-        <v>4.62</v>
+        <v>4.51</v>
       </c>
       <c r="F5">
-        <v>4.63</v>
+        <v>4.51</v>
       </c>
       <c r="G5">
-        <v>4.63</v>
+        <v>4.51</v>
       </c>
       <c r="H5">
-        <v>4.5</v>
+        <v>4.51</v>
       </c>
       <c r="I5">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="J5">
         <v>7.0000000000000007E-2</v>
@@ -527,34 +559,44 @@
       <c r="K5">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>60</v>
       </c>
       <c r="B6">
-        <v>4.08</v>
+        <v>3.78</v>
       </c>
       <c r="C6">
-        <v>4.62</v>
+        <v>4.41</v>
       </c>
       <c r="D6">
-        <v>4.63</v>
+        <v>4.51</v>
       </c>
       <c r="E6">
-        <v>4.63</v>
+        <v>4.51</v>
       </c>
       <c r="F6">
-        <v>4.63</v>
+        <v>4.51</v>
       </c>
       <c r="G6">
-        <v>4.63</v>
+        <v>4.51</v>
       </c>
       <c r="H6">
-        <v>3.88</v>
+        <v>3.89</v>
       </c>
       <c r="I6">
-        <v>1.41</v>
+        <v>1.49</v>
       </c>
       <c r="J6">
         <v>0.06</v>
@@ -562,34 +604,44 @@
       <c r="K6">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>50</v>
       </c>
       <c r="B7">
-        <v>4.08</v>
+        <v>3.78</v>
       </c>
       <c r="C7">
-        <v>4.62</v>
+        <v>4.41</v>
       </c>
       <c r="D7">
-        <v>4.63</v>
+        <v>4.5</v>
       </c>
       <c r="E7">
-        <v>4.63</v>
+        <v>4.51</v>
       </c>
       <c r="F7">
-        <v>4.63</v>
+        <v>4.51</v>
       </c>
       <c r="G7">
-        <v>3.89</v>
+        <v>3.79</v>
       </c>
       <c r="H7">
-        <v>3.35</v>
+        <v>3.26</v>
       </c>
       <c r="I7">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="J7">
         <v>0.05</v>
@@ -597,34 +649,44 @@
       <c r="K7">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>40</v>
       </c>
       <c r="B8">
-        <v>4.08</v>
+        <v>3.78</v>
       </c>
       <c r="C8">
-        <v>4.62</v>
+        <v>4.41</v>
       </c>
       <c r="D8">
-        <v>4.63</v>
+        <v>4.51</v>
       </c>
       <c r="E8">
-        <v>4.62</v>
+        <v>4.51</v>
       </c>
       <c r="F8">
-        <v>3.74</v>
+        <v>3.64</v>
       </c>
       <c r="G8">
-        <v>3.13</v>
+        <v>3.05</v>
       </c>
       <c r="H8">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="I8">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="J8">
         <v>0.06</v>
@@ -632,111 +694,151 @@
       <c r="K8">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>30</v>
       </c>
       <c r="B9">
-        <v>4.08</v>
+        <v>3.78</v>
       </c>
       <c r="C9">
-        <v>4.62</v>
+        <v>4.41</v>
       </c>
       <c r="D9">
-        <v>4.62</v>
+        <v>4.51</v>
       </c>
       <c r="E9">
-        <v>3.51</v>
+        <v>3.42</v>
       </c>
       <c r="F9">
-        <v>2.83</v>
+        <v>2.75</v>
       </c>
       <c r="G9">
-        <v>2.37</v>
+        <v>2.31</v>
       </c>
       <c r="H9">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="I9">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="J9">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="K9">
-        <v>1.85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.8</v>
+      </c>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>20</v>
       </c>
       <c r="B10">
-        <v>4.08</v>
+        <v>3.78</v>
       </c>
       <c r="C10">
-        <v>4.62</v>
+        <v>4.42</v>
       </c>
       <c r="D10">
-        <v>3.13</v>
+        <v>3.05</v>
       </c>
       <c r="E10">
-        <v>2.37</v>
+        <v>2.31</v>
       </c>
       <c r="F10">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="G10">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H10">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="I10">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="J10">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="K10">
-        <v>1.85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.81</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>4.0599999999999996</v>
+        <v>3.77</v>
       </c>
       <c r="C11">
-        <v>2.36</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="D11">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="E11">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="F11">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="G11">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="H11">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="I11">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="J11">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="K11">
-        <v>1.85</v>
-      </c>
+        <v>1.77</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
